--- a/backend/attendance_2025-07-14.xlsx
+++ b/backend/attendance_2025-07-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,6 +653,24 @@
         <v>78.4171008</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A22126512125</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-07-14 23:38:35</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>17.2392448</v>
+      </c>
+      <c r="D13" t="n">
+        <v>78.56455680000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
